--- a/xls/小药 技能附魔2014.11.13-神的规则.xlsx
+++ b/xls/小药 技能附魔2014.11.13-神的规则.xlsx
@@ -1,774 +1,574 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Jx3\浮烟\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13035"/>
+    <workbookView windowWidth="28710" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
+  <extLst/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177">
   <si>
     <t>小药类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>增幅属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>增幅数值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>价格（个人觉得使用频繁程度和价格成反比）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>持续时间（min）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>重要程度（个人意见，使用该小药的用处）0-9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>灰色干脆没得卖。。。。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>药品增强</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>中品万花丹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>外功会心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>cj不很重要</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>万花丹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cj不很重要</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>中品聚神丹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>外功命中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>命中不够的情况很少，不很重要</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>中品亢龙丹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>外功攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>根本都没得卖。而且外功攻击属性小药使用不多</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>尚·上品万花丹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>外功会效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>上品万花丹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>吃着卖萌用。。。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>药品辅助</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>尚·柏桂香囊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>力道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>尚·桂枝香囊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>身法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>健体香囊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>外功破防</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>价格相比太贵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>润肺香囊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外功会效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>烹饪增强</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>香辣蹄髈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>命中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>佳·麻香软骨脆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>碳烤软骨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>佳·芋丝蒸肉糕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>芋丝蒸肉糕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>佳·佛手排骨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>佛手排骨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外功会效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>烹饪辅助</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>佳·安荣力劲汤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>佳·君子知身汤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>武器磨石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>固·安戎·熔锭（外伤）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>贵而且不常用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>技能附魔-全</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>缺少部分T 奶以及丐帮的钧天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>万花·青岩太玄·钧天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>右键点击对武器使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>限时60分钟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>“花间游”心法下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>施展“阳明指”获得一层瞬息效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>持续6秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>可叠加5层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>五层瞬息下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>施展“快雪时晴”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>伤害提高100%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>瞬间释放出所有伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>仅在秘境、试炼之地、帮会领地内有效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>万花·青岩太玄·变天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>“玉石俱焚”每吞噬一跳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>自身持续伤害效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>使下一招阳明指额外造成10%伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>少林·禅音伏魔·变天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>“易筋经”心法下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>“横扫六合”的持续伤害效果可叠加三层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>少林·禅音伏魔·钧天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3点禅那施放“拿云式”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>使下一个“韦陀献杵”施展立即回复消耗掉的所有禅那</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>天策·百战心得·钧天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>“傲血战意”心法下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>“破风”流血减益效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>每跳使“灭”的调息时间降低1秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>同一时间只有一个流血效果生效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>天策·百战心得·变天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>施展“战八方”招式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>每0.5秒对自身周围6尺内</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>最多5个目标均造成100%的武器伤害外加额外外功伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>纯阳·寻剑玄境·钧天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>“紫霞功”心法下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>“六合独尊”不再造成范围伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>每0.5秒造成一次伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>持续2.5秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>大幅提升伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>调息时间增加至15秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>纯阳·寻剑玄境·变天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>施展“六合独尊”使自身获得“六合”增益效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>每秒对半径10尺内的10个目标造成混元伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>持续15秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>调戏时间增加至45秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>纯阳·寻剑玄境·玄天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>“太虚剑意”心法下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>气场“碎星辰”“凌太虚”“化三清”每3秒造成一次外功伤害效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>纯阳·寻剑玄境·旻天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>施展“人剑合一”获得“清剑”效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>效果期间施展“无我无剑”重置八荒调息时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>并使“八荒归元”无视目标当前血量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>发挥最大伤害效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>七秀·剑舞霓裳·旻天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>“冰心诀”心法下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>“急曲”伤害效果可以叠加至4层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>七秀·剑舞霓裳·玄天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>施展“繁音急节”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>小队全体成员均获得增益效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>七秀·剑舞霓裳·钧天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>“云裳心经”心法下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>当目标的血量低于50%时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>“上元点鬟”的完结效果提前触发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>且对目标区域半径6尺的最多5个玩家造成群体治疗效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>该效果最多每12秒触发一次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>藏剑·剑意心诀·钧天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>“问水诀”心法下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>施展“平湖断月”，“黄龙吐翠”穿透目标后</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>使目标获得虚弱效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>每层使目标外功防御降低25%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>持续25秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>可叠加两层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>藏剑·剑意心诀·玄天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>“山居剑意”心法下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>“风来吴山”效果期间受到的伤害降低60%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>并且调息时间降低30秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>五毒·五仙秘法·旻天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>“补天诀”心法下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>献祭碧蝶后获得“碧蝶”效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>每2秒治疗周围半径8尺内的最多6名友方玩家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>持续10秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>五毒·五仙秘法·变天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>“毒经”心法下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>成功吟唱“蝎心”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>若目标存在自身的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>“蛇影”、“百足”、“蟾啸”持续伤害效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>每个持续伤害使蝎心伤害提高15%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>五毒·五仙秘法·钧天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>为所有小队成员回复“蝎心”5%伤害的血量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>唐门·乾坤断羽·变天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>“惊羽诀”心法下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>“夺魄箭”伤害提高30%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>每次命中目标使“追命箭”调息时间降低1秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>目标血量每降低10%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>“追命箭”伤害提高10%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>唐门·乾坤断羽·钧天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>“化血镖”每跳为自身回复25点神机值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>该效果同一时间只能存在于一个目标身上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>唐门·乾坤断羽·旻天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>“天罗诡道”心法下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>“天绝地灭”机关持续时间延长15秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>每命中一个目标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>使自身回复15点神机值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>最多回复30点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>唐门·乾坤断羽·玄天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>“暗藏杀机”一次可施展3个机关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>图穷匕见调息时间增加至15秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>每引爆一个机关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>使目标收到的毒性内功伤害增加2%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>使自身每秒回复2点神机值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>可叠加3层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>持续24秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>明教·妙火琉璃·玄天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>“焚影圣诀”心法下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>施展“净世破魔击”后随机回复10至80点日灵和月魂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>明教·妙火琉璃·旻天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>施展“净世破魔击”招式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>有35%的几率使自身获得“暗尘”效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>可立即施展“驱夜断愁”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>明教·妙火琉璃·变天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>“明尊琉璃体”心法下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>“戒火斩”使目标的易伤效果由3%提高到5%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>丐帮·逍遥烟雨·变天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>“笑尘诀”心法下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>施展“烟雨行”使自身伤害提高5%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>持续20秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>调息时间25秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>丐帮·逍遥烟雨·钧天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>交易行没看到。。。。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="12"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -780,25 +580,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor indexed="51"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor indexed="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -812,17 +612,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -840,24 +652,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -867,106 +674,106 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Cans" typeface="Euphemia"/>
         <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
         <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -978,156 +785,222 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:satMod val="350000"/>
+                <a:shade val="99000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="_h" fmla="val 21600"/>
+            <a:gd name="_w" fmla="val 21600"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:pathLst>
+            <a:path w="21600" h="21600"/>
+          </a:pathLst>
+        </a:custGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </a:spPr>
+      <a:bodyPr/>
+      <a:lstStyle/>
+    </a:spDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1162,29 +1035,29 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:17">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>195</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>174</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>30</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="1"/>
@@ -1197,26 +1070,26 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="1:17">
+      <c r="A3" s="1"/>
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>110</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3">
         <v>15</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>5</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>13</v>
+      <c r="H3" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -1228,13 +1101,13 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="D4" s="1">
         <v>195</v>
@@ -1249,7 +1122,7 @@
         <v>3</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -1261,26 +1134,26 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="1:17">
+      <c r="A5" s="1"/>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="3">
+        <v>220</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3">
+        <v>30</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D5" s="4">
-        <v>220</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4">
-        <v>30</v>
-      </c>
-      <c r="G5" s="4">
-        <v>2</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -1292,27 +1165,27 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="1:17">
+      <c r="A6" s="1"/>
+      <c r="B6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>292</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>44</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>30</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>9</v>
       </c>
-      <c r="H6" s="5"/>
+      <c r="H6" s="4"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1323,26 +1196,26 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
-      <c r="B7" s="4" t="s">
+    <row r="7" spans="1:17">
+      <c r="A7" s="1"/>
+      <c r="B7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="3">
+        <v>195</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3">
+        <v>30</v>
+      </c>
+      <c r="G7" s="3">
+        <v>7</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="4">
-        <v>195</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4">
-        <v>30</v>
-      </c>
-      <c r="G7" s="4">
-        <v>7</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -1354,29 +1227,29 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:17">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>110</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>43</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>30</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <v>8</v>
       </c>
-      <c r="H8" s="5"/>
+      <c r="H8" s="4"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1387,27 +1260,27 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
-      <c r="B9" s="5" t="s">
+    <row r="9" spans="1:17">
+      <c r="A9" s="1"/>
+      <c r="B9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>110</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>42</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>30</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <v>8</v>
       </c>
-      <c r="H9" s="5"/>
+      <c r="H9" s="4"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1418,28 +1291,28 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="1:17">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="2">
+        <v>195</v>
+      </c>
+      <c r="E10" s="2">
+        <v>160</v>
+      </c>
+      <c r="F10" s="2">
         <v>30</v>
       </c>
-      <c r="D10" s="3">
-        <v>195</v>
-      </c>
-      <c r="E10" s="3">
-        <v>160</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="G10" s="2">
+        <v>7</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="G10" s="3">
-        <v>7</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -1451,28 +1324,28 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="3">
+    <row r="11" spans="1:17">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="2">
         <v>195</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>200</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>30</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <v>7</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>31</v>
+      <c r="H11" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1484,29 +1357,29 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:17">
+      <c r="A12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>65</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>110</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <v>15</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <v>3</v>
       </c>
-      <c r="H12" s="6"/>
+      <c r="H12" s="5"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1517,13 +1390,13 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A13" s="2"/>
+    <row r="13" spans="1:17">
+      <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" s="1">
         <v>220</v>
@@ -1548,25 +1421,25 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A14" s="2"/>
-      <c r="B14" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="4">
+    <row r="14" spans="1:17">
+      <c r="A14" s="1"/>
+      <c r="B14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="3">
         <v>146</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4">
+      <c r="E14" s="3"/>
+      <c r="F14" s="3">
         <v>30</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <v>1</v>
       </c>
-      <c r="H14" s="4"/>
+      <c r="H14" s="3"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -1577,27 +1450,27 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="3" t="s">
+    <row r="15" spans="1:17">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="2">
+        <v>195</v>
+      </c>
+      <c r="E15" s="2">
+        <v>41</v>
+      </c>
+      <c r="F15" s="2">
         <v>30</v>
       </c>
-      <c r="D15" s="3">
-        <v>195</v>
-      </c>
-      <c r="E15" s="3">
-        <v>41</v>
-      </c>
-      <c r="F15" s="3">
-        <v>30</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="G15" s="2">
         <v>8</v>
       </c>
-      <c r="H15" s="3"/>
+      <c r="H15" s="2"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1608,25 +1481,25 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A16" s="2"/>
-      <c r="B16" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="4" t="s">
+    <row r="16" spans="1:17">
+      <c r="A16" s="1"/>
+      <c r="B16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="3">
+        <v>130</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3">
         <v>30</v>
       </c>
-      <c r="D16" s="4">
-        <v>130</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4">
-        <v>30</v>
-      </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <v>6</v>
       </c>
-      <c r="H16" s="4"/>
+      <c r="H16" s="3"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1637,27 +1510,27 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A17" s="2"/>
-      <c r="B17" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="5">
+    <row r="17" spans="1:17">
+      <c r="A17" s="1"/>
+      <c r="B17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="4">
         <v>195</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>38</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="4">
         <v>30</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="4">
         <v>9</v>
       </c>
-      <c r="H17" s="5"/>
+      <c r="H17" s="4"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -1668,25 +1541,25 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A18" s="2"/>
-      <c r="B18" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="4">
+    <row r="18" spans="1:17">
+      <c r="A18" s="1"/>
+      <c r="B18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="3">
         <v>130</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4">
+      <c r="E18" s="3"/>
+      <c r="F18" s="3">
         <v>30</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="3">
         <v>7</v>
       </c>
-      <c r="H18" s="4"/>
+      <c r="H18" s="3"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -1697,29 +1570,29 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="5" t="s">
+    <row r="19" spans="1:17">
+      <c r="A19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="4">
+        <v>73</v>
+      </c>
+      <c r="E19" s="4">
         <v>45</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="5">
-        <v>73</v>
-      </c>
-      <c r="E19" s="5">
-        <v>45</v>
-      </c>
-      <c r="F19" s="5">
+      <c r="F19" s="4">
         <v>30</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="4">
         <v>8</v>
       </c>
-      <c r="H19" s="5"/>
+      <c r="H19" s="4"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -1730,27 +1603,27 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A20" s="2"/>
-      <c r="B20" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="5">
+    <row r="20" spans="1:17">
+      <c r="A20" s="1"/>
+      <c r="B20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="4">
         <v>73</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="4">
         <v>31</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="4">
         <v>30</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="4">
         <v>8</v>
       </c>
-      <c r="H20" s="5"/>
+      <c r="H20" s="4"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -1761,15 +1634,15 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17">
       <c r="A21" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D21" s="1">
         <v>220</v>
@@ -1784,7 +1657,7 @@
         <v>5</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1796,7 +1669,7 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:17">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1815,12 +1688,12 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17">
       <c r="A23" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1833,74 +1706,74 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="I24" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="J24" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="K24" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="L24" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="M24" s="1">
         <v>1222</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:17">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -1914,18 +1787,18 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:17">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1941,19 +1814,19 @@
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:17">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -1968,24 +1841,24 @@
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:17">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -1999,22 +1872,22 @@
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:17">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -2028,30 +1901,30 @@
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:17">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="J30" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -2063,25 +1936,25 @@
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:17">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -2094,18 +1967,18 @@
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:17">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -2121,25 +1994,25 @@
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:17">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -2152,18 +2025,18 @@
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:17">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -2179,19 +2052,19 @@
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:17">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -2206,27 +2079,27 @@
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:17">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I36" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -2239,30 +2112,30 @@
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:17">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I37" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="J37" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -2274,21 +2147,21 @@
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:17">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -2303,24 +2176,24 @@
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:17">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -2334,27 +2207,27 @@
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:17">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I40" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -2367,19 +2240,19 @@
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:17">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -2394,27 +2267,27 @@
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:17">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I42" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -2427,19 +2300,19 @@
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:17">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -2454,27 +2327,27 @@
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:17">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I44" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -2487,34 +2360,34 @@
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:17">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J45" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="K45" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="L45" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="M45" s="1">
         <v>1222</v>
@@ -2524,18 +2397,18 @@
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:17">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -2551,22 +2424,22 @@
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:17">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
@@ -2580,18 +2453,18 @@
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:17">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -2607,24 +2480,24 @@
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:17">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -2638,16 +2511,16 @@
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:17">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -2661,7 +2534,7 @@
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:17">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2687,7 +2560,8 @@
     <mergeCell ref="A12:A18"/>
     <mergeCell ref="A19:A20"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>